--- a/Documents/Directory/к ТЗ-2.xlsx
+++ b/Documents/Directory/к ТЗ-2.xlsx
@@ -1826,7 +1826,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2075,6 +2075,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2472,9 +2475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M112" sqref="M112"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6233,7 +6236,7 @@
       <c r="I75" s="68"/>
       <c r="J75" s="66"/>
       <c r="K75" s="66"/>
-      <c r="L75" s="69" t="s">
+      <c r="L75" s="85" t="s">
         <v>429</v>
       </c>
       <c r="M75" s="70"/>
@@ -6261,7 +6264,7 @@
       <c r="I76" s="68"/>
       <c r="J76" s="66"/>
       <c r="K76" s="66"/>
-      <c r="L76" s="69" t="s">
+      <c r="L76" s="85" t="s">
         <v>428</v>
       </c>
       <c r="M76" s="70"/>
@@ -6289,7 +6292,7 @@
       <c r="I77" s="68"/>
       <c r="J77" s="66"/>
       <c r="K77" s="66"/>
-      <c r="L77" s="69" t="s">
+      <c r="L77" s="85" t="s">
         <v>430</v>
       </c>
       <c r="M77" s="70"/>
@@ -6317,7 +6320,7 @@
       <c r="I78" s="68"/>
       <c r="J78" s="66"/>
       <c r="K78" s="66"/>
-      <c r="L78" s="69" t="s">
+      <c r="L78" s="85" t="s">
         <v>457</v>
       </c>
       <c r="M78" s="70"/>
@@ -6521,7 +6524,7 @@
       <c r="I86" s="68"/>
       <c r="J86" s="66"/>
       <c r="K86" s="66"/>
-      <c r="L86" s="69" t="s">
+      <c r="L86" s="85" t="s">
         <v>431</v>
       </c>
       <c r="M86" s="70"/>
@@ -6549,7 +6552,7 @@
       <c r="I87" s="68"/>
       <c r="J87" s="66"/>
       <c r="K87" s="66"/>
-      <c r="L87" s="69" t="s">
+      <c r="L87" s="85" t="s">
         <v>432</v>
       </c>
       <c r="M87" s="70"/>
@@ -6577,7 +6580,7 @@
       <c r="I88" s="68"/>
       <c r="J88" s="66"/>
       <c r="K88" s="66"/>
-      <c r="L88" s="69" t="s">
+      <c r="L88" s="85" t="s">
         <v>444</v>
       </c>
       <c r="M88" s="70"/>
@@ -6605,7 +6608,7 @@
       <c r="I89" s="68"/>
       <c r="J89" s="66"/>
       <c r="K89" s="66"/>
-      <c r="L89" s="69" t="s">
+      <c r="L89" s="85" t="s">
         <v>446</v>
       </c>
       <c r="M89" s="70"/>
@@ -6633,7 +6636,7 @@
       <c r="I90" s="68"/>
       <c r="J90" s="66"/>
       <c r="K90" s="66"/>
-      <c r="L90" s="69" t="s">
+      <c r="L90" s="85" t="s">
         <v>433</v>
       </c>
       <c r="M90" s="76" t="s">
@@ -6663,7 +6666,7 @@
       <c r="I91" s="68"/>
       <c r="J91" s="66"/>
       <c r="K91" s="66"/>
-      <c r="L91" s="69" t="s">
+      <c r="L91" s="85" t="s">
         <v>435</v>
       </c>
       <c r="M91" s="70"/>
@@ -6691,7 +6694,7 @@
       <c r="I92" s="68"/>
       <c r="J92" s="66"/>
       <c r="K92" s="66"/>
-      <c r="L92" s="69" t="s">
+      <c r="L92" s="85" t="s">
         <v>436</v>
       </c>
       <c r="M92" s="70"/>
@@ -6719,7 +6722,7 @@
       <c r="I93" s="68"/>
       <c r="J93" s="66"/>
       <c r="K93" s="66"/>
-      <c r="L93" s="69" t="s">
+      <c r="L93" s="85" t="s">
         <v>437</v>
       </c>
       <c r="M93" s="70"/>
@@ -6747,7 +6750,7 @@
       <c r="I94" s="68"/>
       <c r="J94" s="66"/>
       <c r="K94" s="66"/>
-      <c r="L94" s="69" t="s">
+      <c r="L94" s="85" t="s">
         <v>438</v>
       </c>
       <c r="M94" s="70"/>
@@ -6775,7 +6778,7 @@
       <c r="I95" s="68"/>
       <c r="J95" s="66"/>
       <c r="K95" s="66"/>
-      <c r="L95" s="69" t="s">
+      <c r="L95" s="85" t="s">
         <v>439</v>
       </c>
       <c r="M95" s="70"/>
@@ -6803,7 +6806,7 @@
       <c r="I96" s="68"/>
       <c r="J96" s="66"/>
       <c r="K96" s="66"/>
-      <c r="L96" s="69" t="s">
+      <c r="L96" s="85" t="s">
         <v>440</v>
       </c>
       <c r="M96" s="70"/>
@@ -6831,7 +6834,7 @@
       <c r="I97" s="68"/>
       <c r="J97" s="66"/>
       <c r="K97" s="66"/>
-      <c r="L97" s="69" t="s">
+      <c r="L97" s="85" t="s">
         <v>441</v>
       </c>
       <c r="M97" s="70"/>
@@ -6859,7 +6862,7 @@
       <c r="I98" s="68"/>
       <c r="J98" s="66"/>
       <c r="K98" s="66"/>
-      <c r="L98" s="69" t="s">
+      <c r="L98" s="85" t="s">
         <v>455</v>
       </c>
       <c r="M98" s="70"/>
@@ -6887,7 +6890,7 @@
       <c r="I99" s="68"/>
       <c r="J99" s="66"/>
       <c r="K99" s="66"/>
-      <c r="L99" s="69" t="s">
+      <c r="L99" s="85" t="s">
         <v>452</v>
       </c>
       <c r="M99" s="76" t="s">
@@ -6917,7 +6920,7 @@
       <c r="I100" s="68"/>
       <c r="J100" s="66"/>
       <c r="K100" s="66"/>
-      <c r="L100" s="69" t="s">
+      <c r="L100" s="85" t="s">
         <v>451</v>
       </c>
       <c r="M100" s="70"/>
@@ -6945,7 +6948,7 @@
       <c r="I101" s="68"/>
       <c r="J101" s="66"/>
       <c r="K101" s="66"/>
-      <c r="L101" s="69" t="s">
+      <c r="L101" s="85" t="s">
         <v>454</v>
       </c>
       <c r="M101" s="70"/>
@@ -6973,7 +6976,7 @@
       <c r="I102" s="68"/>
       <c r="J102" s="66"/>
       <c r="K102" s="66"/>
-      <c r="L102" s="69" t="s">
+      <c r="L102" s="85" t="s">
         <v>448</v>
       </c>
       <c r="M102" s="70"/>
@@ -7001,7 +7004,7 @@
       <c r="I103" s="68"/>
       <c r="J103" s="66"/>
       <c r="K103" s="66"/>
-      <c r="L103" s="69" t="s">
+      <c r="L103" s="85" t="s">
         <v>449</v>
       </c>
       <c r="M103" s="70"/>
@@ -7029,7 +7032,7 @@
       <c r="I104" s="68"/>
       <c r="J104" s="66"/>
       <c r="K104" s="66"/>
-      <c r="L104" s="69" t="s">
+      <c r="L104" s="85" t="s">
         <v>450</v>
       </c>
       <c r="M104" s="70"/>
